--- a/crawler/newworkbook.xlsx
+++ b/crawler/newworkbook.xlsx
@@ -1416,7 +1416,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:KJ97"/>
+  <dimension ref="A1:KJ63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -56841,61 +56841,6 @@
       <c r="KH63" s="3"/>
       <c r="KI63" s="1"/>
     </row>
-    <row r="87" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ87" s="3">
-        <v>29.57</v>
-      </c>
-    </row>
-    <row r="88" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ88" s="3">
-        <v>29.21</v>
-      </c>
-    </row>
-    <row r="89" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ89" s="3">
-        <v>29.84</v>
-      </c>
-    </row>
-    <row r="90" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ90" s="3">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="91" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ91" s="3">
-        <v>29.94</v>
-      </c>
-    </row>
-    <row r="92" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ92" s="3">
-        <v>30.18</v>
-      </c>
-    </row>
-    <row r="93" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ93" s="3">
-        <v>30.02</v>
-      </c>
-    </row>
-    <row r="94" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ94" s="3">
-        <v>18.64</v>
-      </c>
-    </row>
-    <row r="95" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ95" s="3">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="96" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ96" s="3">
-        <v>30.79</v>
-      </c>
-    </row>
-    <row r="97" spans="296:296" x14ac:dyDescent="0.15">
-      <c r="KJ97" s="3">
-        <v>30.93</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
